--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_DLPhuTho.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_DLPhuTho.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="75">
   <si>
     <t>STT</t>
   </si>
@@ -258,16 +258,25 @@
     <t>Thiết bị chập chờn GSM, hoạt động 1 tgian không nhận sim</t>
   </si>
   <si>
-    <t>WP21120135S02265/0021002445</t>
-  </si>
-  <si>
-    <t>BT</t>
-  </si>
-  <si>
     <t>Thể</t>
   </si>
   <si>
-    <t>Chèn sim thiết bị hoạt động bình thường</t>
+    <t>WP21120135S02265/0032002445</t>
+  </si>
+  <si>
+    <t>Đổi mới</t>
+  </si>
+  <si>
+    <t>ĐM</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>10/10/2022</t>
+  </si>
+  <si>
+    <t>ID tb mới : WP21110052S00176/0032000F3D</t>
   </si>
 </sst>
 </file>
@@ -1070,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1284,20 +1293,22 @@
       <c r="B6" s="61">
         <v>44839</v>
       </c>
-      <c r="C6" s="61">
-        <v>44841</v>
+      <c r="C6" s="61" t="s">
+        <v>73</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>68</v>
+      <c r="E6" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="I6" s="63" t="s">
         <v>66</v>
       </c>
@@ -1307,20 +1318,20 @@
       <c r="K6" s="65"/>
       <c r="L6" s="66"/>
       <c r="M6" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P6" s="66" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q6" s="64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" s="67" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
@@ -1736,7 +1747,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1768,7 +1779,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -2237,7 +2248,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -2269,7 +2280,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="13"/>
     </row>
